--- a/documentos-excel/universidad.xlsx
+++ b/documentos-excel/universidad.xlsx
@@ -426,8 +426,8 @@
   <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="40" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/documentos-excel/universidad.xlsx
+++ b/documentos-excel/universidad.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="personas" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="sheet2" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -522,4 +523,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/documentos-excel/universidad.xlsx
+++ b/documentos-excel/universidad.xlsx
@@ -5,14 +5,13 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="sheet2" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -523,107 +522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>
--- a/documentos-excel/universidad.xlsx
+++ b/documentos-excel/universidad.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Sara9</t>
+  </si>
+  <si>
+    <t>Sara10</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -518,6 +521,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
